--- a/Tests/1/Test_SingleRun8.xlsx
+++ b/Tests/1/Test_SingleRun8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -335,6 +335,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -350,21 +365,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +672,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -689,55 +689,55 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="36">
+      <c r="B2" s="42"/>
+      <c r="C2" s="31">
         <v>1811.9839999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="38">
+      <c r="B3" s="42"/>
+      <c r="C3" s="33">
         <v>5913.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="39">
+      <c r="B4" s="42"/>
+      <c r="C4" s="34">
         <v>1434.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="37">
+      <c r="B5" s="42"/>
+      <c r="C5" s="32">
         <v>0.62230000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="35">
+      <c r="B6" s="42"/>
+      <c r="C6" s="30">
         <v>1.0505677145283143</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="24">
         <v>60</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="28">
         <v>33668.1</v>
       </c>
     </row>
@@ -765,7 +765,7 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="28">
         <v>10576</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="28">
         <v>5048.5</v>
       </c>
     </row>
@@ -781,7 +781,7 @@
       <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="28">
         <v>3229.7</v>
       </c>
     </row>
@@ -789,7 +789,7 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="28">
         <v>2129.5</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="28">
         <v>1717.5</v>
       </c>
     </row>
@@ -805,7 +805,7 @@
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="28">
         <v>1299.8</v>
       </c>
     </row>
@@ -813,7 +813,7 @@
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="28">
         <v>1022.7</v>
       </c>
     </row>
@@ -821,7 +821,7 @@
       <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="28">
         <v>806.2</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
       <c r="B18" s="4">
         <v>10</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="28">
         <v>713.7</v>
       </c>
     </row>
@@ -837,7 +837,7 @@
       <c r="B19" s="4">
         <v>11.5</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="28">
         <v>620.4</v>
       </c>
     </row>
@@ -845,7 +845,7 @@
       <c r="B20" s="3">
         <v>13</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="28">
         <v>539.9</v>
       </c>
     </row>
@@ -853,7 +853,7 @@
       <c r="B21" s="3">
         <v>14.5</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="28">
         <v>466.6</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="28">
         <v>366.2</v>
       </c>
     </row>
@@ -869,7 +869,7 @@
       <c r="B23" s="3">
         <v>17.5</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="28">
         <v>330.3</v>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="28">
         <v>284.7</v>
       </c>
     </row>
@@ -885,7 +885,7 @@
       <c r="B25" s="3">
         <v>20.5</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="28">
         <v>243.2</v>
       </c>
     </row>
@@ -893,7 +893,7 @@
       <c r="B26" s="3">
         <v>22</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="28">
         <v>233.2</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
       <c r="B27" s="3">
         <v>23.5</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="28">
         <v>204.1</v>
       </c>
     </row>
@@ -909,7 +909,7 @@
       <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="28">
         <v>156.1</v>
       </c>
     </row>
@@ -917,7 +917,7 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="28">
         <v>140.6</v>
       </c>
     </row>
@@ -925,7 +925,7 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="28">
         <v>176.4</v>
       </c>
     </row>
@@ -933,7 +933,7 @@
       <c r="B31" s="3">
         <v>31</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="28">
         <v>213.3</v>
       </c>
     </row>
@@ -941,7 +941,7 @@
       <c r="B32" s="3">
         <v>33</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="28">
         <v>175.6</v>
       </c>
     </row>
@@ -949,7 +949,7 @@
       <c r="B33" s="3">
         <v>35</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="28">
         <v>115.9</v>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="B34" s="3">
         <v>37</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="28">
         <v>105.5</v>
       </c>
     </row>
@@ -965,7 +965,7 @@
       <c r="B35" s="3">
         <v>39</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="28">
         <v>146.69999999999999</v>
       </c>
     </row>
@@ -973,7 +973,7 @@
       <c r="B36" s="3">
         <v>41</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="28">
         <v>129.9</v>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="B37" s="3">
         <v>43</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="28">
         <v>138.5</v>
       </c>
     </row>
@@ -989,7 +989,7 @@
       <c r="B38" s="3">
         <v>45</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="28">
         <v>108.1</v>
       </c>
     </row>
@@ -1011,8 +1011,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N353"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,11 +1028,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="41">
+      <c r="B2" s="42"/>
+      <c r="C2" s="36">
         <v>1811.9839999999999</v>
       </c>
       <c r="D2" s="8"/>
@@ -1048,11 +1048,11 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="40">
+      <c r="B3" s="42"/>
+      <c r="C3" s="35">
         <v>5913.5</v>
       </c>
       <c r="D3" s="7"/>
@@ -1068,11 +1068,11 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="39">
+      <c r="B4" s="42"/>
+      <c r="C4" s="34">
         <v>1434.6</v>
       </c>
       <c r="D4" s="7"/>
@@ -1088,11 +1088,11 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="42">
+      <c r="B5" s="42"/>
+      <c r="C5" s="37">
         <v>0.62230000000000008</v>
       </c>
       <c r="D5" s="9"/>
@@ -1108,19 +1108,19 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="43">
+      <c r="B6" s="42"/>
+      <c r="C6" s="38">
         <v>1.0505677145283143</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="25">
         <v>60</v>
       </c>
@@ -1137,10 +1137,10 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="21">
         <v>45</v>
       </c>
@@ -1157,10 +1157,10 @@
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="46"/>
       <c r="C9">
         <f>C16+C10</f>
         <v>86.077032478302968</v>
@@ -1178,10 +1178,10 @@
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="44"/>
       <c r="C10">
         <f>60*(C13-(C22/C21)*EXP(-1*C21*C8))/C2/C7</f>
         <v>6.1848366274307471</v>
@@ -1199,10 +1199,10 @@
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="44"/>
       <c r="C11">
         <f>C16/C9</f>
         <v>0.92814765507872588</v>
@@ -1217,10 +1217,10 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="44"/>
       <c r="C12">
         <f>C9*C17/(3*0.693)</f>
         <v>335.89819468132293</v>
@@ -1238,10 +1238,10 @@
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="16">
         <f>(C3+C4)/C5</f>
         <v>11807.970432267395</v>
@@ -1259,15 +1259,14 @@
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="16">
-        <f>C196</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="15"/>
@@ -1282,12 +1281,12 @@
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="15"/>
@@ -1302,7 +1301,7 @@
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="19" t="s">
         <v>20</v>
       </c>
@@ -1323,7 +1322,7 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="20" t="s">
         <v>24</v>
       </c>
@@ -1344,7 +1343,7 @@
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1364,7 @@
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="20" t="s">
         <v>26</v>
       </c>
@@ -1386,7 +1385,7 @@
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +1406,7 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="20" t="s">
         <v>28</v>
       </c>
@@ -1428,7 +1427,7 @@
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="20" t="s">
         <v>29</v>
       </c>
@@ -1449,15 +1448,14 @@
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="16">
-        <f>C291</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -1472,7 +1470,7 @@
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
@@ -1493,7 +1491,7 @@
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="19" t="s">
         <v>20</v>
       </c>
@@ -1514,7 +1512,7 @@
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
       </c>
@@ -1535,7 +1533,7 @@
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
       </c>
@@ -1556,7 +1554,7 @@
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="20" t="s">
         <v>26</v>
       </c>
@@ -1577,7 +1575,7 @@
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="20" t="s">
         <v>27</v>
       </c>
@@ -1598,7 +1596,7 @@
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="20" t="s">
         <v>28</v>
       </c>
@@ -1619,7 +1617,7 @@
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="20" t="s">
         <v>29</v>
       </c>
@@ -1640,18 +1638,18 @@
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="43" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="19" t="s">
         <v>37</v>
       </c>
@@ -1672,7 +1670,7 @@
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="19" t="s">
         <v>20</v>
       </c>
@@ -1693,7 +1691,7 @@
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
       </c>
@@ -1714,7 +1712,7 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
       </c>
@@ -1735,7 +1733,7 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="20" t="s">
         <v>26</v>
       </c>
@@ -1756,7 +1754,7 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="20" t="s">
         <v>27</v>
       </c>
@@ -1777,7 +1775,7 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="20" t="s">
         <v>28</v>
       </c>
@@ -1798,7 +1796,7 @@
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="20" t="s">
         <v>29</v>
       </c>
@@ -1844,7 +1842,7 @@
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="29">
         <v>33668.1</v>
       </c>
       <c r="D42" s="7"/>
@@ -1863,7 +1861,7 @@
       <c r="B43" s="3">
         <v>2</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="29">
         <v>10576</v>
       </c>
       <c r="D43" s="7"/>
@@ -1882,7 +1880,7 @@
       <c r="B44" s="3">
         <v>3</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="29">
         <v>5048.5</v>
       </c>
       <c r="D44" s="7"/>
@@ -1901,7 +1899,7 @@
       <c r="B45" s="4">
         <v>4</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="29">
         <v>3229.7</v>
       </c>
       <c r="D45" s="7"/>
@@ -1920,7 +1918,7 @@
       <c r="B46" s="3">
         <v>5</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="29">
         <v>2129.5</v>
       </c>
       <c r="D46" s="7"/>
@@ -1939,7 +1937,7 @@
       <c r="B47" s="3">
         <v>6</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="29">
         <v>1717.5</v>
       </c>
       <c r="D47" s="7"/>
@@ -1958,7 +1956,7 @@
       <c r="B48" s="3">
         <v>7</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="29">
         <v>1299.8</v>
       </c>
       <c r="D48" s="7"/>
@@ -1977,7 +1975,7 @@
       <c r="B49" s="3">
         <v>8</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="29">
         <v>1022.7</v>
       </c>
       <c r="D49" s="7"/>
@@ -1996,7 +1994,7 @@
       <c r="B50" s="3">
         <v>9</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="29">
         <v>806.2</v>
       </c>
       <c r="D50" s="7"/>
@@ -2015,7 +2013,7 @@
       <c r="B51" s="4">
         <v>10</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="29">
         <v>713.7</v>
       </c>
       <c r="D51" s="7"/>
@@ -2034,7 +2032,7 @@
       <c r="B52" s="4">
         <v>11.5</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="29">
         <v>620.4</v>
       </c>
       <c r="D52" s="7"/>
@@ -2053,7 +2051,7 @@
       <c r="B53" s="3">
         <v>13</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="29">
         <v>539.9</v>
       </c>
       <c r="D53" s="7"/>
@@ -2071,7 +2069,7 @@
       <c r="B54" s="3">
         <v>14.5</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C54" s="29">
         <v>466.6</v>
       </c>
       <c r="D54" s="7"/>
@@ -2090,7 +2088,7 @@
       <c r="B55" s="3">
         <v>16</v>
       </c>
-      <c r="C55" s="34">
+      <c r="C55" s="29">
         <v>366.2</v>
       </c>
       <c r="D55" s="7"/>
@@ -2109,7 +2107,7 @@
       <c r="B56" s="3">
         <v>17.5</v>
       </c>
-      <c r="C56" s="34">
+      <c r="C56" s="29">
         <v>330.3</v>
       </c>
       <c r="D56" s="7"/>
@@ -2128,7 +2126,7 @@
       <c r="B57" s="3">
         <v>19</v>
       </c>
-      <c r="C57" s="34">
+      <c r="C57" s="29">
         <v>284.7</v>
       </c>
       <c r="D57" s="7"/>
@@ -2147,7 +2145,7 @@
       <c r="B58" s="3">
         <v>20.5</v>
       </c>
-      <c r="C58" s="34">
+      <c r="C58" s="29">
         <v>243.2</v>
       </c>
       <c r="D58" s="7"/>
@@ -2166,7 +2164,7 @@
       <c r="B59" s="3">
         <v>22</v>
       </c>
-      <c r="C59" s="34">
+      <c r="C59" s="29">
         <v>233.2</v>
       </c>
       <c r="D59" s="7"/>
@@ -2185,7 +2183,7 @@
       <c r="B60" s="3">
         <v>23.5</v>
       </c>
-      <c r="C60" s="34">
+      <c r="C60" s="29">
         <v>204.1</v>
       </c>
       <c r="D60" s="7"/>
@@ -2204,7 +2202,7 @@
       <c r="B61" s="3">
         <v>25</v>
       </c>
-      <c r="C61" s="34">
+      <c r="C61" s="29">
         <v>156.1</v>
       </c>
       <c r="D61" s="7"/>
@@ -2223,7 +2221,7 @@
       <c r="B62" s="3">
         <v>27</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C62" s="29">
         <v>140.6</v>
       </c>
       <c r="D62" s="7"/>
@@ -2242,7 +2240,7 @@
       <c r="B63" s="3">
         <v>29</v>
       </c>
-      <c r="C63" s="34">
+      <c r="C63" s="29">
         <v>176.4</v>
       </c>
       <c r="D63" s="7"/>
@@ -2261,7 +2259,7 @@
       <c r="B64" s="3">
         <v>31</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="29">
         <v>213.3</v>
       </c>
     </row>
@@ -2269,7 +2267,7 @@
       <c r="B65" s="3">
         <v>33</v>
       </c>
-      <c r="C65" s="34">
+      <c r="C65" s="29">
         <v>175.6</v>
       </c>
     </row>
@@ -2277,7 +2275,7 @@
       <c r="B66" s="3">
         <v>35</v>
       </c>
-      <c r="C66" s="34">
+      <c r="C66" s="29">
         <v>115.9</v>
       </c>
     </row>
@@ -2285,7 +2283,7 @@
       <c r="B67" s="3">
         <v>37</v>
       </c>
-      <c r="C67" s="34">
+      <c r="C67" s="29">
         <v>105.5</v>
       </c>
     </row>
@@ -2293,7 +2291,7 @@
       <c r="B68" s="3">
         <v>39</v>
       </c>
-      <c r="C68" s="34">
+      <c r="C68" s="29">
         <v>146.69999999999999</v>
       </c>
     </row>
@@ -2301,7 +2299,7 @@
       <c r="B69" s="3">
         <v>41</v>
       </c>
-      <c r="C69" s="34">
+      <c r="C69" s="29">
         <v>129.9</v>
       </c>
     </row>
@@ -2309,7 +2307,7 @@
       <c r="B70" s="3">
         <v>43</v>
       </c>
-      <c r="C70" s="34">
+      <c r="C70" s="29">
         <v>138.5</v>
       </c>
     </row>
@@ -2317,7 +2315,7 @@
       <c r="B71" s="3">
         <v>45</v>
       </c>
-      <c r="C71" s="34">
+      <c r="C71" s="29">
         <v>108.1</v>
       </c>
     </row>
@@ -3335,7 +3333,7 @@
       <c r="B170" s="3">
         <v>5</v>
       </c>
-      <c r="C170" s="46">
+      <c r="C170" s="41">
         <f>RSQ($B139:$B$164, $C139:$C$164)</f>
         <v>0.85944701878638774</v>
       </c>
@@ -3355,7 +3353,7 @@
       <c r="B171" s="3">
         <v>6</v>
       </c>
-      <c r="C171" s="32">
+      <c r="C171" s="27">
         <f>RSQ($B140:$B$164, $C140:$C$164)</f>
         <v>0.85900240611623135</v>
       </c>
@@ -3375,7 +3373,7 @@
       <c r="B172" s="3">
         <v>7</v>
       </c>
-      <c r="C172" s="45">
+      <c r="C172" s="40">
         <f>RSQ($B141:$B$164, $C141:$C$164)</f>
         <v>0.86028371418663574</v>
       </c>
@@ -3395,7 +3393,7 @@
       <c r="B173" s="3">
         <v>8</v>
       </c>
-      <c r="C173" s="44">
+      <c r="C173" s="39">
         <f>RSQ($B142:$B$164, $C142:$C$164)</f>
         <v>0.8603247667985906</v>
       </c>
@@ -3455,7 +3453,7 @@
       <c r="B176" s="4">
         <v>11.5</v>
       </c>
-      <c r="C176" s="32">
+      <c r="C176" s="27">
         <f>RSQ($B145:$B$164, $C145:$C$164)</f>
         <v>0.86850322690216386</v>
       </c>
